--- a/data/trans_dic/iP30A6_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A6_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>16,27%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,3; 40,9</t>
+          <t>5,52; 48,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 34,08</t>
+          <t>3,69; 37,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,73; 36,1</t>
+          <t>6,34; 31,71</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,69%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>31,72%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,56; 49,36</t>
+          <t>29,3; 40,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,02; 49,09</t>
+          <t>22,76; 34,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,24; 47,33</t>
+          <t>27,73; 36,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>38,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>40,84%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 48,74</t>
+          <t>35,18; 50,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 37,68</t>
+          <t>31,19; 49,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 31,71</t>
+          <t>36,02; 46,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>42,57%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,18; 50,99</t>
+          <t>36,56; 49,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,19; 49,89</t>
+          <t>36,02; 49,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,02; 46,74</t>
+          <t>38,24; 47,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A6_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A6_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,2; 45,63</t>
+          <t>24,58; 45,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,11; 35,78</t>
+          <t>20,48; 36,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,53; 38,91</t>
+          <t>24,58; 38,15</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,3; 40,9</t>
+          <t>29,47; 40,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,76; 34,08</t>
+          <t>22,89; 34,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,73; 36,1</t>
+          <t>27,68; 35,77</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,18; 50,99</t>
+          <t>35,69; 49,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,19; 49,89</t>
+          <t>31,51; 48,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,02; 46,74</t>
+          <t>36,11; 47,27</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,56; 49,36</t>
+          <t>36,09; 49,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,02; 49,09</t>
+          <t>36,14; 49,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,24; 47,33</t>
+          <t>38,08; 47,41</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,69; 41,85</t>
+          <t>35,01; 41,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,64; 38,4</t>
+          <t>30,62; 38,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,8; 38,85</t>
+          <t>33,68; 38,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A6_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A6_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 48,74</t>
+          <t>5,47; 46,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 37,68</t>
+          <t>3,16; 34,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 31,71</t>
+          <t>6,5; 30,96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,58; 45,75</t>
+          <t>24,55; 45,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,48; 36,25</t>
+          <t>20,27; 35,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,58; 38,15</t>
+          <t>25,03; 38,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,47; 40,37</t>
+          <t>29,09; 41,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,89; 34,21</t>
+          <t>22,39; 33,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,68; 35,77</t>
+          <t>27,99; 36,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,69; 49,69</t>
+          <t>35,73; 49,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,51; 48,8</t>
+          <t>31,65; 49,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,11; 47,27</t>
+          <t>35,24; 46,95</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,09; 49,11</t>
+          <t>35,97; 49,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,14; 49,14</t>
+          <t>35,8; 48,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,08; 47,41</t>
+          <t>38,36; 47,6</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,01; 41,78</t>
+          <t>34,51; 41,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,62; 38,18</t>
+          <t>30,61; 37,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,68; 38,9</t>
+          <t>33,75; 38,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A6_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A6_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>29,42%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 46,21</t>
+          <t>18,76; 32,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 34,08</t>
+          <t>23,3; 48,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 30,96</t>
+          <t>23,79; 38,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>31,44%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,55; 45,68</t>
+          <t>21,73; 32,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,27; 35,02</t>
+          <t>29,57; 41,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,03; 38,66</t>
+          <t>27,37; 36,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>43,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>42,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>43,34%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,09; 41,56</t>
+          <t>32,18; 67,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,39; 33,41</t>
+          <t>34,99; 50,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,99; 36,47</t>
+          <t>36,67; 55,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>42,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>41,92%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,73; 49,99</t>
+          <t>35,01; 48,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,65; 49,16</t>
+          <t>35,73; 48,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,24; 46,95</t>
+          <t>37,65; 46,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,69%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>36,8%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,97; 49,48</t>
+          <t>31,16; 46,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,8; 48,74</t>
+          <t>34,62; 42,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,36; 47,6</t>
+          <t>33,83; 40,95</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>38,12%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>34,1%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>36,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>34,51; 41,71</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>30,61; 37,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>33,75; 38,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
